--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3643654.545677729</v>
+        <v>3637523.187661316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10784220.51827725</v>
+        <v>10819839.43620937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881612.407893174</v>
+        <v>881630.0194036068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7363049.171233905</v>
+        <v>7365338.62992474</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>58.58787979144354</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>255.4849319824638</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797666</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870196</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>268.4876729674754</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>77.18791253260861</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>311.8037341262367</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>294.3427842337637</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>245.1342946158512</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>311.000262535018</v>
+        <v>250.9353275131901</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>339.9916181162096</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6776568500766</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.25765425093201</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>132.9878626023763</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>180.0650644216581</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V17" t="n">
-        <v>256.8221509328911</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>278.3108611801692</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>298.8009931412252</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>315.3078311188098</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.8587561440536</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C19" t="n">
-        <v>96.31671356138401</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D19" t="n">
-        <v>77.68536548096853</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E19" t="n">
-        <v>75.50385510932534</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F19" t="n">
-        <v>74.49094048568742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>95.0957007217844</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H19" t="n">
-        <v>73.82490737707695</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I19" t="n">
-        <v>25.42231287259427</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.0020451328035</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>118.8389177941981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>148.6188417389254</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>215.281730668369</v>
+        <v>199.7400067181086</v>
       </c>
       <c r="V19" t="n">
-        <v>181.2075357865842</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>215.5928907993472</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>154.7795478517933</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.654545814851</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>311.8037341262367</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>218.5791997029344</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>283.7529340834391</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>311.000262535018</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>335.9459382044676</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>339.9916181162096</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6776568500766</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.25765425093201</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>132.9878626023763</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>180.0650644216581</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>256.8221509328911</v>
+        <v>196.757215911063</v>
       </c>
       <c r="W20" t="n">
-        <v>278.3108611801692</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.3078311188098</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.9018726446935</v>
+        <v>88.3420281272948</v>
       </c>
       <c r="C22" t="n">
-        <v>96.31671356138401</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D22" t="n">
-        <v>77.68536548096853</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>75.50385510932534</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>74.49094048568742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>95.0957007217844</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H22" t="n">
-        <v>73.82490737707695</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I22" t="n">
-        <v>25.42231287259427</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.0020451328035</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.8389177941981</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T22" t="n">
-        <v>163.5757252382854</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>215.281730668369</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>181.2075357865842</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>215.5928907993472</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>154.7795478517933</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.654545814851</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>311.8037341262367</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>294.3427842337637</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>283.7529340834391</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>311.000262535018</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>335.9459382044676</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>339.9916181162096</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6776568500766</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.25765425093201</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T23" t="n">
-        <v>132.9878626023765</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>180.0650644216584</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V23" t="n">
-        <v>256.8221509328911</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>278.3108611801692</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>298.8009931412252</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>315.3078311188098</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.9018726446935</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C25" t="n">
-        <v>96.31671356138401</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D25" t="n">
-        <v>77.68536548096853</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E25" t="n">
-        <v>75.50385510932534</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F25" t="n">
-        <v>74.49094048568742</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G25" t="n">
-        <v>95.0957007217844</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H25" t="n">
-        <v>73.82490737707695</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>25.42231287259427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.0020451328035</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>118.8389177941981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>148.6188417389254</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>215.281730668369</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>181.2075357865842</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>215.5928907993472</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>154.7795478517933</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.611429314211</v>
+        <v>132.1128218645902</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210282</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403093</v>
@@ -2617,10 +2617,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957295</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124537</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2769,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2778,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210273</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2958,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575761</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3046,7 +3046,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3252,7 +3252,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>59.00935643203845</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524736</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>284.6877393021491</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>311.9350677537279</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>336.8807434231776</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>340.9264233349196</v>
+        <v>357.965034384151</v>
       </c>
       <c r="H35" t="n">
-        <v>224.6124620687866</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.19245946964196</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>180.9998696403681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>257.756956151601</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>279.2456663988792</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>299.7357983599352</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.2426363375197</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8366778634034</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>97.25151878009396</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967848</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>76.4386603280353</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>75.42574570439835</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049435</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578691</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130422</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.93685035151346</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>119.773723012908</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>149.5536469576353</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>216.216535887079</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>182.1423410052941</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>216.5276960180571</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>155.7143530705033</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.5893510335609</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.7385393449467</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>192.3134780206279</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>311.9350677537279</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8807434231776</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>340.9264233349196</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>224.6124620687866</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.19245946964196</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>133.9226678210863</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>180.9998696403681</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>257.756956151601</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>279.2456663988792</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>299.7357983599352</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.2426363375197</v>
+        <v>156.1919951969895</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.8366778634034</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>97.25151878009396</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>78.62017069967848</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>76.4386603280353</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>75.42574570439737</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>96.03050594049435</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>74.75971259578691</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>26.35711809130422</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.93685035151351</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>119.7737230129082</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>149.5536469576353</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>216.2165358870792</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>182.1423410052941</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>216.5276960180571</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>155.7143530705033</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5893510335609</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
         <v>307.7079050020904</v>
@@ -3751,7 +3751,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>73.14223262086682</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>114.6494520583717</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,7 +3948,7 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128501</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3982,7 +3982,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
@@ -3991,10 +3991,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.42639757795454</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>105.6650816107252</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.318056916146</v>
+        <v>1459.895634131918</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.805172923808</v>
+        <v>1138.382750139579</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923808</v>
+        <v>827.5666844809023</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>489.2280648307313</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>125.6917929891971</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>125.6917929891971</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5056,37 +5056,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921007</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.157963059933</v>
+        <v>2141.735540275705</v>
       </c>
       <c r="Y11" t="n">
-        <v>1708.468264032194</v>
+        <v>1799.045841247966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5220,16 +5220,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179563</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1640.517726580262</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.004842587924</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.004842587924</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
@@ -5278,13 +5278,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.77673900139</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>3247.638233192395</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2964.024978796898</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2658.705956474857</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608001</v>
+        <v>2332.689831161851</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580262</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="15">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1494.943042039172</v>
+        <v>1696.355985625558</v>
       </c>
       <c r="C17" t="n">
-        <v>1197.627098368704</v>
+        <v>1422.292734581293</v>
       </c>
       <c r="D17" t="n">
-        <v>950.0166997668341</v>
+        <v>1158.926301870689</v>
       </c>
       <c r="E17" t="n">
-        <v>635.8750204385332</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F17" t="n">
-        <v>635.8750204385332</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G17" t="n">
-        <v>292.4491435534729</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3286.961726406209</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3152.630552060374</v>
+        <v>3214.52733988954</v>
       </c>
       <c r="U17" t="n">
-        <v>2970.746648604154</v>
+        <v>3055.896129059523</v>
       </c>
       <c r="V17" t="n">
-        <v>2711.330334530527</v>
+        <v>2819.732507612099</v>
       </c>
       <c r="W17" t="n">
-        <v>2430.208252530356</v>
+        <v>2561.863118238131</v>
       </c>
       <c r="X17" t="n">
-        <v>2128.389067539219</v>
+        <v>2283.296625873198</v>
       </c>
       <c r="Y17" t="n">
-        <v>1809.896308833351</v>
+        <v>1988.056559793533</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>590.0876675522046</v>
+        <v>522.2180850649279</v>
       </c>
       <c r="C19" t="n">
-        <v>492.7980578942409</v>
+        <v>448.1811680331676</v>
       </c>
       <c r="D19" t="n">
-        <v>414.3279917518485</v>
+        <v>392.9637945169785</v>
       </c>
       <c r="E19" t="n">
-        <v>338.0614714393986</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F19" t="n">
-        <v>262.8180972114315</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7618338560937</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>92.1912203438948</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1909.110664115964</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1789.071353212734</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1638.951311052203</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1421.49501744779</v>
+        <v>1222.254008698829</v>
       </c>
       <c r="V19" t="n">
-        <v>1238.457102511846</v>
+        <v>1062.468786389089</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.686505744829</v>
+        <v>867.9508822482752</v>
       </c>
       <c r="X19" t="n">
-        <v>864.3435281167547</v>
+        <v>734.8605972464045</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1975222431679</v>
+        <v>608.967283999021</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1796.76222703031</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.975156623306</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1289.356031286498</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>975.2143519581974</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F20" t="n">
-        <v>635.8750204385332</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G20" t="n">
-        <v>292.4491435534729</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3286.96172640621</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3152.630552060375</v>
+        <v>3214.52733988954</v>
       </c>
       <c r="U20" t="n">
-        <v>2970.746648604155</v>
+        <v>3055.896129059523</v>
       </c>
       <c r="V20" t="n">
-        <v>2711.330334530528</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W20" t="n">
-        <v>2430.208252530357</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X20" t="n">
-        <v>2430.208252530357</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y20" t="n">
-        <v>2111.715493824488</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.0876675522046</v>
+        <v>712.0166168572212</v>
       </c>
       <c r="C22" t="n">
-        <v>492.7980578942409</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>414.3279917518485</v>
+        <v>487.863060413125</v>
       </c>
       <c r="E22" t="n">
-        <v>338.0614714393986</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F22" t="n">
-        <v>262.8180972114315</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7618338560937</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>92.19122034389481</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1909.110664115964</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1789.071353212734</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T22" t="n">
-        <v>1623.843347921536</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U22" t="n">
-        <v>1406.387054317123</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V22" t="n">
-        <v>1223.349139381179</v>
+        <v>1349.651756989188</v>
       </c>
       <c r="W22" t="n">
-        <v>1005.578542614162</v>
+        <v>1155.133852848374</v>
       </c>
       <c r="X22" t="n">
-        <v>849.2355649860879</v>
+        <v>1022.043567846504</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.0895591125011</v>
+        <v>801.2509887029735</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1881.012489237746</v>
+        <v>1734.852707015896</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.696545567277</v>
+        <v>1460.789455971631</v>
       </c>
       <c r="D23" t="n">
-        <v>1297.07742023047</v>
+        <v>1197.423023261027</v>
       </c>
       <c r="E23" t="n">
-        <v>982.9357409021691</v>
+        <v>906.5340365589294</v>
       </c>
       <c r="F23" t="n">
-        <v>643.5964093825047</v>
+        <v>590.4473976654684</v>
       </c>
       <c r="G23" t="n">
-        <v>300.1705324974444</v>
+        <v>270.2742134066116</v>
       </c>
       <c r="H23" t="n">
-        <v>74.23350537615489</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I23" t="n">
-        <v>74.23350537615489</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J23" t="n">
-        <v>263.1126363351804</v>
+        <v>256.4690098705508</v>
       </c>
       <c r="K23" t="n">
-        <v>596.9320100250268</v>
+        <v>590.2883835603973</v>
       </c>
       <c r="L23" t="n">
-        <v>1426.314281528038</v>
+        <v>1041.322596808806</v>
       </c>
       <c r="M23" t="n">
-        <v>1959.846186199962</v>
+        <v>1574.854501480731</v>
       </c>
       <c r="N23" t="n">
-        <v>2506.625003258745</v>
+        <v>2121.633318539513</v>
       </c>
       <c r="O23" t="n">
-        <v>3009.597474138081</v>
+        <v>2624.60578941885</v>
       </c>
       <c r="P23" t="n">
-        <v>3404.37184049526</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q23" t="n">
-        <v>3652.658202250942</v>
+        <v>3320.476879019465</v>
       </c>
       <c r="R23" t="n">
-        <v>3711.675268807744</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S23" t="n">
-        <v>3673.031173604783</v>
+        <v>3364.10254299951</v>
       </c>
       <c r="T23" t="n">
-        <v>3538.699999258948</v>
+        <v>3253.024061279878</v>
       </c>
       <c r="U23" t="n">
-        <v>3356.816095802727</v>
+        <v>3094.392850449861</v>
       </c>
       <c r="V23" t="n">
-        <v>3097.3997817291</v>
+        <v>2858.229229002437</v>
       </c>
       <c r="W23" t="n">
-        <v>2816.277699728929</v>
+        <v>2600.35983962847</v>
       </c>
       <c r="X23" t="n">
-        <v>2514.458514737793</v>
+        <v>2321.793347263536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2195.965756031925</v>
+        <v>2026.553281183871</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.26524342508</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C24" t="n">
-        <v>774.812214143953</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D24" t="n">
-        <v>625.8778044827018</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E24" t="n">
-        <v>466.6403494772463</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F24" t="n">
-        <v>320.1057915041313</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G24" t="n">
-        <v>183.7426913367494</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H24" t="n">
-        <v>93.24079697461693</v>
+        <v>86.59717050998739</v>
       </c>
       <c r="I24" t="n">
-        <v>74.23350537615489</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J24" t="n">
-        <v>167.9107748667723</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K24" t="n">
-        <v>406.1749738471195</v>
+        <v>399.5313473824899</v>
       </c>
       <c r="L24" t="n">
-        <v>772.8731341597849</v>
+        <v>766.2295076951552</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.149459382101</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.672502936555</v>
+        <v>1687.028876471926</v>
       </c>
       <c r="O24" t="n">
-        <v>2104.63378235461</v>
+        <v>2097.990155889981</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.133373830713</v>
+        <v>2408.489747366084</v>
       </c>
       <c r="Q24" t="n">
-        <v>2572.774931477313</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R24" t="n">
-        <v>2572.630578069828</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.192691563308</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T24" t="n">
-        <v>2250.549691241164</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U24" t="n">
-        <v>2022.481844375579</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.329736143836</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.092379415635</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.240879210102</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y24" t="n">
-        <v>1117.480580445148</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2374.468388271457</v>
+        <v>618.1951134404165</v>
       </c>
       <c r="C25" t="n">
-        <v>2277.178778613493</v>
+        <v>544.1581964086562</v>
       </c>
       <c r="D25" t="n">
-        <v>2198.7087124711</v>
+        <v>488.940822892467</v>
       </c>
       <c r="E25" t="n">
-        <v>2122.44219215865</v>
+        <v>435.9269952062205</v>
       </c>
       <c r="F25" t="n">
-        <v>2047.198817930683</v>
+        <v>383.9363136044567</v>
       </c>
       <c r="G25" t="n">
-        <v>1951.142554575345</v>
+        <v>311.1327428753222</v>
       </c>
       <c r="H25" t="n">
-        <v>1876.571941063147</v>
+        <v>164.91555609318</v>
       </c>
       <c r="I25" t="n">
-        <v>1850.892837151435</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J25" t="n">
-        <v>1896.015469598371</v>
+        <v>112.7125113584609</v>
       </c>
       <c r="K25" t="n">
-        <v>2100.002652547247</v>
+        <v>316.6996943073373</v>
       </c>
       <c r="L25" t="n">
-        <v>2416.562450995743</v>
+        <v>633.2594927558334</v>
       </c>
       <c r="M25" t="n">
-        <v>2760.719496595292</v>
+        <v>977.4165383553825</v>
       </c>
       <c r="N25" t="n">
-        <v>3102.127873301157</v>
+        <v>1318.824915061247</v>
       </c>
       <c r="O25" t="n">
-        <v>3401.45747222157</v>
+        <v>1618.154513981661</v>
       </c>
       <c r="P25" t="n">
-        <v>3634.06497265523</v>
+        <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>3711.675268807744</v>
+        <v>1928.372310567835</v>
       </c>
       <c r="R25" t="n">
-        <v>3693.491384835216</v>
+        <v>1838.541853325363</v>
       </c>
       <c r="S25" t="n">
-        <v>3573.452073931986</v>
+        <v>1646.855969152189</v>
       </c>
       <c r="T25" t="n">
-        <v>3423.332031771455</v>
+        <v>1519.988619617862</v>
       </c>
       <c r="U25" t="n">
-        <v>3205.875738167042</v>
+        <v>1325.785018639652</v>
       </c>
       <c r="V25" t="n">
-        <v>3022.837823231098</v>
+        <v>1165.999796329912</v>
       </c>
       <c r="W25" t="n">
-        <v>2805.067226464081</v>
+        <v>971.4818921890977</v>
       </c>
       <c r="X25" t="n">
-        <v>2648.724248836007</v>
+        <v>838.391607187227</v>
       </c>
       <c r="Y25" t="n">
-        <v>2484.470279831753</v>
+        <v>704.9443123745096</v>
       </c>
     </row>
     <row r="26">
@@ -6202,73 +6202,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>907.4660419013965</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.628073400774</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698011</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899675</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257051</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913854</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415484</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643407</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6408,28 +6408,28 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6463,22 +6463,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>937.3106675423214</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1388.34488079073</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
         <v>3684.98316084772</v>
@@ -6493,19 +6493,19 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257042</v>
@@ -6609,16 +6609,16 @@
         <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960313</v>
@@ -6651,22 +6651,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6688,7 +6688,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6703,22 +6703,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6736,13 +6736,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6824,7 +6824,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6861,31 +6861,31 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6894,7 +6894,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1878.956586467774</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.696395101639</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D35" t="n">
-        <v>1293.133022069165</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E35" t="n">
-        <v>978.0470950451975</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F35" t="n">
-        <v>637.7635158298665</v>
+        <v>678.2269266876167</v>
       </c>
       <c r="G35" t="n">
-        <v>293.3933912491397</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6937,13 +6937,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3286.017478710543</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3286.017478710543</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3103.189327558656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2842.828765789362</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2560.762436093525</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X35" t="n">
-        <v>2257.999003406722</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y35" t="n">
-        <v>1938.561997005187</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>596.6974014218719</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C37" t="n">
-        <v>498.4635440682416</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D37" t="n">
-        <v>419.0492302301826</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E37" t="n">
-        <v>341.8384622220661</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F37" t="n">
-        <v>265.6508402984314</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>168.650329247427</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>93.13546803956143</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R37" t="n">
-        <v>1908.166416420297</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S37" t="n">
-        <v>1787.1828578214</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.118567965203</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U37" t="n">
-        <v>1417.718026665123</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
-        <v>1233.735864033513</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1015.021019570829</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X37" t="n">
-        <v>857.7337942470884</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.6435406778349</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1487.38906047384</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C38" t="n">
-        <v>1293.133022069165</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D38" t="n">
-        <v>1293.133022069165</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E38" t="n">
-        <v>978.0470950451975</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F38" t="n">
-        <v>637.7635158298665</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G38" t="n">
-        <v>293.3933912491397</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3286.017478710543</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3150.742056669042</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2967.913905517155</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V38" t="n">
-        <v>2707.553343747861</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="W38" t="n">
-        <v>2425.487014052023</v>
+        <v>2530.592701113543</v>
       </c>
       <c r="X38" t="n">
-        <v>2122.72358136522</v>
+        <v>2204.576575800536</v>
       </c>
       <c r="Y38" t="n">
-        <v>1803.286574963685</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>596.6974014218709</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C40" t="n">
-        <v>498.4635440682407</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D40" t="n">
-        <v>419.0492302301816</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E40" t="n">
-        <v>341.8384622220651</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F40" t="n">
-        <v>265.6508402984314</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>168.650329247427</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>93.13546803956143</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R40" t="n">
-        <v>1908.166416420297</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S40" t="n">
-        <v>1787.1828578214</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.118567965203</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U40" t="n">
-        <v>1417.718026665123</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V40" t="n">
-        <v>1233.735864033512</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.021019570828</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X40" t="n">
-        <v>857.7337942470878</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.643540677834</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1696.959858232656</v>
+        <v>1728.81751343484</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232656</v>
+        <v>1407.304629442502</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1096.488563783825</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>758.1499441336538</v>
       </c>
       <c r="F41" t="n">
         <v>684.2689010822731</v>
@@ -7411,22 +7411,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2820.623417021138</v>
+        <v>3041.992567213674</v>
       </c>
       <c r="W41" t="n">
-        <v>2704.815889689449</v>
+        <v>2736.673544891633</v>
       </c>
       <c r="X41" t="n">
-        <v>2378.799764376442</v>
+        <v>2410.657419578627</v>
       </c>
       <c r="Y41" t="n">
-        <v>2036.110065348704</v>
+        <v>2067.967720550889</v>
       </c>
     </row>
     <row r="42">
@@ -7575,25 +7575,25 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
         <v>2112.720554588246</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1507.448363242303</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C44" t="n">
-        <v>1185.935479249965</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D44" t="n">
-        <v>1185.935479249965</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E44" t="n">
-        <v>847.5968595997939</v>
+        <v>430.0483882737177</v>
       </c>
       <c r="F44" t="n">
-        <v>484.0605877582597</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>116.4377705513294</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7648,25 +7648,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7681,19 +7681,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3104.236671416635</v>
+        <v>2997.504265749236</v>
       </c>
       <c r="V44" t="n">
-        <v>2820.623417021138</v>
+        <v>2713.891011353739</v>
       </c>
       <c r="W44" t="n">
-        <v>2515.304394699097</v>
+        <v>2408.571989031698</v>
       </c>
       <c r="X44" t="n">
-        <v>2189.28826938609</v>
+        <v>2082.555863718691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1846.598570358352</v>
+        <v>1739.866164690953</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7727,22 +7727,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
         <v>116.3881606657648</v>
@@ -7839,19 +7839,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.221501888979</v>
+        <v>146.732833213419</v>
       </c>
       <c r="K8" t="n">
-        <v>157.4059133489761</v>
+        <v>168.6634518925332</v>
       </c>
       <c r="L8" t="n">
-        <v>158.0014473651625</v>
+        <v>171.9674193880973</v>
       </c>
       <c r="M8" t="n">
-        <v>143.817723061782</v>
+        <v>159.357557892016</v>
       </c>
       <c r="N8" t="n">
-        <v>141.4844316738503</v>
+        <v>157.2757172780346</v>
       </c>
       <c r="O8" t="n">
-        <v>147.0696976594928</v>
+        <v>161.9809608673838</v>
       </c>
       <c r="P8" t="n">
-        <v>160.3700801917931</v>
+        <v>173.0964983554613</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.0905914448088</v>
+        <v>178.6476014810346</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>101.9272989814906</v>
+        <v>106.400996460556</v>
       </c>
       <c r="K9" t="n">
-        <v>95.26572130177519</v>
+        <v>102.9119828535486</v>
       </c>
       <c r="L9" t="n">
-        <v>81.30607319918423</v>
+        <v>91.58741546282721</v>
       </c>
       <c r="M9" t="n">
-        <v>75.32796037052942</v>
+        <v>87.32580185261517</v>
       </c>
       <c r="N9" t="n">
-        <v>62.76748055261251</v>
+        <v>75.08286919803751</v>
       </c>
       <c r="O9" t="n">
-        <v>79.86421965739893</v>
+        <v>91.13039426149632</v>
       </c>
       <c r="P9" t="n">
-        <v>83.62642696972709</v>
+        <v>92.66852533301338</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.3254825048802</v>
+        <v>112.3698858023464</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>103.3317535837395</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>102.0211922427047</v>
+        <v>107.9232135872085</v>
       </c>
       <c r="M10" t="n">
-        <v>104.2758478294422</v>
+        <v>110.4987018127662</v>
       </c>
       <c r="N10" t="n">
-        <v>93.85950638154502</v>
+        <v>99.93439480590806</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2127173786423</v>
+        <v>112.8238600877255</v>
       </c>
       <c r="P10" t="n">
-        <v>110.9935175841451</v>
+        <v>115.7948195266227</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>382.1697558127292</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>53.34379948258089</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>306.6874953089246</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>336.8335818149097</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>167.7369666428357</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>240.9710754359417</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8351763665422</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.80995379063004</v>
+        <v>14.89845384305426</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>189.0447479772844</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>67.27103207741268</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>66.46756048619386</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>126.8321228077008</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>38.61863946758788</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>37.0447693218866</v>
       </c>
       <c r="F17" t="n">
-        <v>335.9459382044676</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>75.76358453082935</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>37.04476932188678</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>298.8009931412252</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>253.7291829129083</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.981554650709882</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
-        <v>133.9226678210863</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>102.9641114318458</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>284.6877393021491</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>183.0708068404716</v>
       </c>
     </row>
     <row r="39">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>286.7586765022521</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.6163800404488</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>198.2062301907734</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>98.35495372958415</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686126.5464070005</v>
+        <v>691786.5779556108</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>584987.1927526162</v>
+        <v>584987.1927526161</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605008.7574464248</v>
+        <v>624249.0119384358</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605008.7574464248</v>
+        <v>624249.0119384357</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641820.1012007259</v>
+        <v>629387.191791883</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604227.4472446271</v>
+        <v>584987.1927526161</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604227.4472446271</v>
+        <v>584987.1927526161</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>819276.3387170383</v>
+      </c>
+      <c r="C2" t="n">
         <v>819276.3387170385</v>
       </c>
-      <c r="C2" t="n">
-        <v>819276.3387170384</v>
-      </c>
       <c r="D2" t="n">
-        <v>819315.5643015096</v>
+        <v>819308.5196973364</v>
       </c>
       <c r="E2" t="n">
         <v>764531.0098898428</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898432</v>
       </c>
       <c r="G2" t="n">
-        <v>791226.4294815882</v>
+        <v>816880.1021376026</v>
       </c>
       <c r="H2" t="n">
-        <v>791226.4294815883</v>
+        <v>816880.1021376025</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642821</v>
+        <v>821041.769864283</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642819</v>
       </c>
       <c r="M2" t="n">
-        <v>790184.6825458572</v>
+        <v>764531.0098898429</v>
       </c>
       <c r="N2" t="n">
-        <v>790184.6825458568</v>
+        <v>764531.0098898429</v>
       </c>
       <c r="O2" t="n">
-        <v>764531.0098898417</v>
+        <v>764531.0098898429</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898431</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>104979.1865587611</v>
+        <v>86125.75643942355</v>
       </c>
       <c r="E3" t="n">
-        <v>1062867.062881385</v>
+        <v>1080553.488276307</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19163.97673492101</v>
+        <v>37580.10929487421</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25665.99336712293</v>
+        <v>3582.495953363588</v>
       </c>
       <c r="J3" t="n">
-        <v>41026.79060843638</v>
+        <v>44338.97058237749</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19163.97673492103</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
-        <v>180016.5656650675</v>
+        <v>161600.4331051144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>410447.2939670073</v>
+        <v>416978.1536172742</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362311</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.4453436232</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="G4" t="n">
-        <v>74556.34031586829</v>
+        <v>89198.61203532515</v>
       </c>
       <c r="H4" t="n">
-        <v>74556.34031586829</v>
+        <v>89198.61203532516</v>
       </c>
       <c r="I4" t="n">
-        <v>89051.80985199162</v>
+        <v>91221.91034341976</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936333</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936331</v>
+        <v>86909.55729936328</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936335</v>
       </c>
       <c r="M4" t="n">
-        <v>73961.74546387934</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="N4" t="n">
-        <v>73961.74546387936</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="O4" t="n">
+        <v>59435.44534362316</v>
+      </c>
+      <c r="P4" t="n">
         <v>59435.44534362318</v>
-      </c>
-      <c r="P4" t="n">
-        <v>59435.44534362319</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36299.84294205956</v>
+        <v>35819.92928277612</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80269.36377194185</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>80269.36377194186</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>86137.61936936017</v>
+        <v>83023.74556647008</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26502,10 +26502,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>80190.77563201013</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>80190.77563201013</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338624.1184446457</v>
+        <v>338579.9826659643</v>
       </c>
       <c r="C6" t="n">
-        <v>338624.1184446455</v>
+        <v>338579.9826659645</v>
       </c>
       <c r="D6" t="n">
-        <v>267589.2408336817</v>
+        <v>280341.3491036887</v>
       </c>
       <c r="E6" t="n">
-        <v>-436026.9916569475</v>
+        <v>-455126.1860512299</v>
       </c>
       <c r="F6" t="n">
-        <v>626840.0712244378</v>
+        <v>625427.3022250773</v>
       </c>
       <c r="G6" t="n">
-        <v>617236.7486588571</v>
+        <v>607792.693032066</v>
       </c>
       <c r="H6" t="n">
-        <v>636400.7253937782</v>
+        <v>645372.8023269402</v>
       </c>
       <c r="I6" t="n">
-        <v>620186.3472758088</v>
+        <v>643213.6180010298</v>
       </c>
       <c r="J6" t="n">
-        <v>603727.4802816762</v>
+        <v>600415.300307736</v>
       </c>
       <c r="K6" t="n">
-        <v>644754.2708901137</v>
+        <v>644754.2708901134</v>
       </c>
       <c r="L6" t="n">
-        <v>625590.2941551914</v>
+        <v>607174.1615952384</v>
       </c>
       <c r="M6" t="n">
-        <v>456015.5957849002</v>
+        <v>463826.8691199626</v>
       </c>
       <c r="N6" t="n">
-        <v>636032.1614499674</v>
+        <v>625427.3022250771</v>
       </c>
       <c r="O6" t="n">
-        <v>626840.0712244367</v>
+        <v>625427.3022250771</v>
       </c>
       <c r="P6" t="n">
-        <v>626840.0712244378</v>
+        <v>625427.3022250772</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H2" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I2" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>122.5799514706218</v>
+        <v>100.5655634300975</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>927.9188172019361</v>
+        <v>844.873486394067</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.95497091865126</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.02016569994129</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.95497091865128</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
-        <v>23.02016569994129</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>122.5799514706218</v>
+        <v>100.5655634300975</v>
       </c>
       <c r="E3" t="n">
-        <v>967.1967491226765</v>
+        <v>989.2111371632008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.023291042029158e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51736179964325</v>
+        <v>13.4720309917742</v>
       </c>
       <c r="J4" t="n">
-        <v>86.4176440066783</v>
+        <v>169.4629748145476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.95497091865126</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.02016569994129</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.4280807971802</v>
+        <v>335.3344319590697</v>
       </c>
       <c r="I8" t="n">
-        <v>191.4778450314264</v>
+        <v>194.8897433025111</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.9142923067117</v>
+        <v>124.4735337248045</v>
       </c>
       <c r="S8" t="n">
-        <v>197.7907604640874</v>
+        <v>199.8074554087042</v>
       </c>
       <c r="T8" t="n">
-        <v>220.9386888101107</v>
+        <v>221.3260977895977</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3062302098761</v>
+        <v>251.31331021407</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0798546260851</v>
+        <v>137.1272063286629</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6890192068898</v>
+        <v>110.1463369659958</v>
       </c>
       <c r="I9" t="n">
-        <v>80.31877795476997</v>
+        <v>81.94908876720503</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>83.78762855813254</v>
+        <v>86.72758777607274</v>
       </c>
       <c r="S9" t="n">
-        <v>166.7857551181955</v>
+        <v>167.6652922252863</v>
       </c>
       <c r="T9" t="n">
-        <v>199.101983643864</v>
+        <v>199.2928442345173</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9240358614271</v>
+        <v>225.9271511050177</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7699335443314</v>
+        <v>167.8096316211258</v>
       </c>
       <c r="H10" t="n">
-        <v>160.2618742691073</v>
+        <v>160.6148262609701</v>
       </c>
       <c r="I10" t="n">
-        <v>148.8030244442285</v>
+        <v>149.9968538809179</v>
       </c>
       <c r="J10" t="n">
-        <v>77.73124105786907</v>
+        <v>80.53789508723231</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.200181979380456</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.65247057963049</v>
+        <v>70.97664317374966</v>
       </c>
       <c r="R10" t="n">
-        <v>167.3543677710433</v>
+        <v>169.1393376603619</v>
       </c>
       <c r="S10" t="n">
-        <v>220.1643723489529</v>
+        <v>220.8562015599969</v>
       </c>
       <c r="T10" t="n">
-        <v>227.0011209497374</v>
+        <v>227.1707400051316</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3069723120839</v>
+        <v>286.3091376617273</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28517,7 +28517,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
         <v>46.97513661859257</v>
@@ -28526,7 +28526,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q16" t="n">
         <v>46.97513661859257</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y17" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.97322403788365</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F19" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>70.93010753724383</v>
+        <v>86.47183148750432</v>
       </c>
       <c r="V19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y20" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.93010753724383</v>
+        <v>91.4899520546425</v>
       </c>
       <c r="C22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D22" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>70.93010753724383</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T22" t="n">
-        <v>55.97322403788377</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X22" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H25" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29243,28 +29243,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.93010753724383</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X25" t="n">
-        <v>70.93010753724383</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.97322403788377</v>
+        <v>86.4718314875046</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859119</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853289</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.99530231853387</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30647,7 +30647,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="M43" t="n">
         <v>46.97513661859258</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.492783724505012</v>
+        <v>0.4042836720807938</v>
       </c>
       <c r="H8" t="n">
-        <v>5.046721318586956</v>
+        <v>4.140370156697431</v>
       </c>
       <c r="I8" t="n">
-        <v>18.9980445389795</v>
+        <v>15.58614626789482</v>
       </c>
       <c r="J8" t="n">
-        <v>41.8244026377073</v>
+        <v>34.31307131326731</v>
       </c>
       <c r="K8" t="n">
-        <v>62.68393769600448</v>
+        <v>51.42639915244732</v>
       </c>
       <c r="L8" t="n">
-        <v>77.76496760482475</v>
+        <v>63.79899558188993</v>
       </c>
       <c r="M8" t="n">
-        <v>86.52851016549076</v>
+        <v>70.98867533525674</v>
       </c>
       <c r="N8" t="n">
-        <v>87.92863192274064</v>
+        <v>72.1373463185563</v>
       </c>
       <c r="O8" t="n">
-        <v>83.02851376219391</v>
+        <v>68.1172505543029</v>
       </c>
       <c r="P8" t="n">
-        <v>70.86291556347642</v>
+        <v>58.1364973998083</v>
       </c>
       <c r="Q8" t="n">
-        <v>53.21509842964065</v>
+        <v>43.65808839341486</v>
       </c>
       <c r="R8" t="n">
-        <v>30.95482563443799</v>
+        <v>25.39558421634519</v>
       </c>
       <c r="S8" t="n">
-        <v>11.22930912215797</v>
+        <v>9.212614177541099</v>
       </c>
       <c r="T8" t="n">
-        <v>2.157160754020691</v>
+        <v>1.769751774533676</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03942269796040095</v>
+        <v>0.0323426937664635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2636625371254885</v>
+        <v>0.216310834547757</v>
       </c>
       <c r="H9" t="n">
-        <v>2.546425029606692</v>
+        <v>2.089107270500706</v>
       </c>
       <c r="I9" t="n">
-        <v>9.077854896645109</v>
+        <v>7.447544084210055</v>
       </c>
       <c r="J9" t="n">
-        <v>24.91032768517609</v>
+        <v>20.43663020611067</v>
       </c>
       <c r="K9" t="n">
-        <v>42.57571767258381</v>
+        <v>34.92945612081039</v>
       </c>
       <c r="L9" t="n">
-        <v>57.24830658068995</v>
+        <v>46.96696431704697</v>
       </c>
       <c r="M9" t="n">
-        <v>66.80607355148889</v>
+        <v>54.80823206940315</v>
       </c>
       <c r="N9" t="n">
-        <v>68.57423153072079</v>
+        <v>56.2588428852958</v>
       </c>
       <c r="O9" t="n">
-        <v>62.7320247870455</v>
+        <v>51.46585018294812</v>
       </c>
       <c r="P9" t="n">
-        <v>50.34798044460315</v>
+        <v>41.30588208131686</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.6562915811413</v>
+        <v>27.61188828367509</v>
       </c>
       <c r="R9" t="n">
-        <v>16.3702055945106</v>
+        <v>13.43024637657039</v>
       </c>
       <c r="S9" t="n">
-        <v>4.897415985642294</v>
+        <v>4.017878878551536</v>
       </c>
       <c r="T9" t="n">
-        <v>1.062745050957561</v>
+        <v>0.871884460304336</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01734621954772951</v>
+        <v>0.01423097595708928</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2210458141273508</v>
+        <v>0.1813477373329627</v>
       </c>
       <c r="H10" t="n">
-        <v>1.965298238332266</v>
+        <v>1.612346246469434</v>
       </c>
       <c r="I10" t="n">
-        <v>6.647450483029789</v>
+        <v>5.453621046340372</v>
       </c>
       <c r="J10" t="n">
-        <v>15.6279390588037</v>
+        <v>12.82128502944047</v>
       </c>
       <c r="K10" t="n">
-        <v>25.68150458679585</v>
+        <v>21.0693098465024</v>
       </c>
       <c r="L10" t="n">
-        <v>32.8634840385336</v>
+        <v>26.96146269402976</v>
       </c>
       <c r="M10" t="n">
-        <v>34.64993611816282</v>
+        <v>28.42708213483888</v>
       </c>
       <c r="N10" t="n">
-        <v>33.82603808368818</v>
+        <v>27.75114965932513</v>
       </c>
       <c r="O10" t="n">
-        <v>31.24382107320047</v>
+        <v>25.63267836411733</v>
       </c>
       <c r="P10" t="n">
-        <v>26.73448646500249</v>
+        <v>21.93318452252487</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.5095726720639</v>
+        <v>15.18540007794473</v>
       </c>
       <c r="R10" t="n">
-        <v>9.939023606126154</v>
+        <v>8.154053716807578</v>
       </c>
       <c r="S10" t="n">
-        <v>3.852225688019376</v>
+        <v>3.160396476975359</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9444684785441351</v>
+        <v>0.7748494231499315</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01205704440694642</v>
+        <v>0.009891694763616161</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32554,13 +32554,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35655,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302278</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35813,7 +35813,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861327</v>
@@ -35822,7 +35822,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>837.7598702050614</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36375,7 +36375,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>452.1057857019528</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>643.8787818643251</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,16 +36609,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>844.8865827031289</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36767,13 +36767,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>504.9282531982362</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>793.2729108488531</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37071,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>782.8881772547613</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629122</v>
@@ -37235,19 +37235,19 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37317,7 +37317,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37943,7 +37943,7 @@
         <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887896</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38186,7 +38186,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
